--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832A38D8-260C-4245-B1E3-50C4437FA092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFFB26-A697-4C47-8B0C-2DC4221DA290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2986,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFFB26-A697-4C47-8B0C-2DC4221DA290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Реестр запросов чек-листа" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Реестр запросов чек-листа'!$A$1:$N$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Ручные проверки'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1733,7 +1732,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2312,7 +2311,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="image003">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2390,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2439,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2488,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="image001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2567,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2609,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2651,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2693,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,29 +2982,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="68" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="81.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="87" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="77.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5546875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="77.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" style="55" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.109375" style="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="64" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>167</v>
       </c>
@@ -3026,7 +3025,7 @@
       </c>
       <c r="G1" s="54"/>
     </row>
-    <row r="2" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3044,7 +3043,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3062,7 +3061,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3080,7 +3079,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3116,7 +3115,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3233,7 +3232,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="216" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3249,11 +3248,11 @@
       <c r="E13" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3269,11 +3268,11 @@
       <c r="E14" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="57" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3291,7 +3290,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3305,11 +3304,11 @@
         <v>116</v>
       </c>
       <c r="E16" s="45"/>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="57" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3323,11 +3322,11 @@
         <v>117</v>
       </c>
       <c r="E17" s="45"/>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="57" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3341,11 +3340,11 @@
         <v>118</v>
       </c>
       <c r="E18" s="45"/>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="57" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3363,7 +3362,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3395,14 +3394,14 @@
         <v>121</v>
       </c>
       <c r="E21" s="45"/>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="57" t="s">
         <v>296</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3438,7 +3437,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3492,7 +3491,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3510,7 +3509,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3564,7 +3563,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3621,7 +3620,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3678,7 +3677,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3759,7 +3758,7 @@
       </c>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3813,7 +3812,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3849,7 +3848,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3885,7 +3884,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3903,7 +3902,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3996,7 +3995,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4104,7 +4103,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -4125,7 +4124,7 @@
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <v>60</v>
       </c>
@@ -4146,7 +4145,7 @@
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -4167,7 +4166,7 @@
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" s="8" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="61">
         <v>62</v>
       </c>
@@ -4188,7 +4187,7 @@
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" s="8" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="61"/>
       <c r="B64" s="38" t="s">
         <v>179</v>
@@ -4207,7 +4206,7 @@
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="32">
         <v>63</v>
       </c>
@@ -4223,7 +4222,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="32">
         <v>64</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="32">
         <v>65</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="32">
         <v>66</v>
       </c>
@@ -4271,7 +4270,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="32">
         <v>67</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>68</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="32">
         <v>69</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="32">
         <v>70</v>
       </c>
@@ -4340,7 +4339,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="32">
         <v>71</v>
       </c>
@@ -4355,7 +4354,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>72</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>73</v>
       </c>
@@ -4389,7 +4388,7 @@
       </c>
       <c r="H75" s="53"/>
     </row>
-    <row r="76" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A76" s="50">
         <v>74</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -4421,7 +4420,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -4437,7 +4436,7 @@
       <c r="H78" s="53"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N78" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N78"/>
   <mergeCells count="1">
     <mergeCell ref="A63:A64"/>
   </mergeCells>
@@ -4447,29 +4446,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.5546875" customWidth="1"/>
+    <col min="1" max="1" width="114.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -4482,14 +4481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4497,14 +4496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4512,26 +4511,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.5546875" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" customWidth="1"/>
-    <col min="3" max="3" width="112.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="93.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="112.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>247</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>250</v>
       </c>
@@ -4553,12 +4552,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4566,21 +4565,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -4593,14 +4592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4608,7 +4607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4618,17 +4617,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="79" style="21" customWidth="1"/>
-    <col min="3" max="3" width="152.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="152.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="200" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>188</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>191</v>
       </c>
@@ -4650,7 +4649,7 @@
       <c r="C2" s="62"/>
       <c r="D2" s="62"/>
     </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -4660,7 +4659,7 @@
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -4671,7 +4670,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="63"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -4683,7 +4682,7 @@
       <c r="E5" s="63"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -4695,7 +4694,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>196</v>
       </c>
@@ -4703,7 +4702,7 @@
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
     </row>
-    <row r="8" spans="1:6" ht="289.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="300.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -4715,7 +4714,7 @@
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -4727,7 +4726,7 @@
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -4739,7 +4738,7 @@
       </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -4751,7 +4750,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -4763,7 +4762,7 @@
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -4775,7 +4774,7 @@
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -4787,7 +4786,7 @@
       </c>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -4799,7 +4798,7 @@
       </c>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -4811,7 +4810,7 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -4823,7 +4822,7 @@
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -4835,7 +4834,7 @@
       </c>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -4847,7 +4846,7 @@
       </c>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -4859,7 +4858,7 @@
       </c>
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:4" ht="138" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -4871,7 +4870,7 @@
       </c>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -4883,7 +4882,7 @@
       </c>
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -4895,7 +4894,7 @@
       </c>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -4907,7 +4906,7 @@
       </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>22</v>
       </c>
@@ -4919,7 +4918,7 @@
       </c>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>23</v>
       </c>
@@ -4931,7 +4930,7 @@
       </c>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>24</v>
       </c>
@@ -4943,7 +4942,7 @@
       </c>
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>25</v>
       </c>
@@ -4955,7 +4954,7 @@
       </c>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -4967,7 +4966,7 @@
       </c>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>27</v>
       </c>
@@ -4979,7 +4978,7 @@
       </c>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>28</v>
       </c>
@@ -4991,7 +4990,7 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>29</v>
       </c>
@@ -5003,7 +5002,7 @@
       </c>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>30</v>
       </c>
@@ -5015,7 +5014,7 @@
       </c>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>31</v>
       </c>
@@ -5027,7 +5026,7 @@
       </c>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>32</v>
       </c>
@@ -5039,7 +5038,7 @@
       </c>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>33</v>
       </c>
@@ -5051,7 +5050,7 @@
       </c>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>34</v>
       </c>
@@ -5063,7 +5062,7 @@
       </c>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" ht="138" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>35</v>
       </c>
@@ -5077,7 +5076,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="62" t="s">
         <v>219</v>
       </c>
@@ -5085,7 +5084,7 @@
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
     </row>
-    <row r="40" spans="1:4" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="171" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <f>A38+1</f>
         <v>36</v>
@@ -5100,7 +5099,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <f>A40+1</f>
         <v>37</v>
@@ -5115,7 +5114,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <f>A41+1</f>
         <v>38</v>
@@ -5128,7 +5127,7 @@
       </c>
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <f>A42+1</f>
         <v>39</v>
@@ -5141,7 +5140,7 @@
       </c>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <f>A43+1</f>
         <v>40</v>
@@ -5154,7 +5153,7 @@
       </c>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="62" t="s">
         <v>231</v>
       </c>
@@ -5162,7 +5161,7 @@
       <c r="C45" s="62"/>
       <c r="D45" s="62"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <f>A44+1</f>
         <v>41</v>
@@ -5173,7 +5172,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <f t="shared" ref="A47:A52" si="0">A46+1</f>
         <v>42</v>
@@ -5184,7 +5183,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="19"/>
     </row>
-    <row r="48" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5195,7 +5194,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5206,7 +5205,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="19"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5217,7 +5216,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="19"/>
     </row>
-    <row r="51" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5228,7 +5227,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="19"/>
     </row>
-    <row r="52" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5239,7 +5238,7 @@
       <c r="C52" s="13"/>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="62" t="s">
         <v>239</v>
       </c>
@@ -5247,7 +5246,7 @@
       <c r="C53" s="62"/>
       <c r="D53" s="62"/>
     </row>
-    <row r="54" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <f>A52+1</f>
         <v>48</v>
@@ -5258,7 +5257,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="19"/>
     </row>
-    <row r="55" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <f>A54+1</f>
         <v>49</v>
@@ -5269,7 +5268,7 @@
       <c r="C55" s="13"/>
       <c r="D55" s="19"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <f>A55+1</f>
         <v>50</v>
@@ -5281,7 +5280,7 @@
       <c r="D56" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:D1"/>
   <mergeCells count="6">
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A2:D2"/>

--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Реестр запросов чек-листа" sheetId="1" r:id="rId1"/>
-    <sheet name="62" sheetId="4" r:id="rId2"/>
-    <sheet name="66" sheetId="2" r:id="rId3"/>
-    <sheet name="67" sheetId="3" r:id="rId4"/>
-    <sheet name="70" sheetId="6" r:id="rId5"/>
-    <sheet name="72" sheetId="7" r:id="rId6"/>
-    <sheet name="74" sheetId="8" r:id="rId7"/>
-    <sheet name="Ручные проверки" sheetId="5" r:id="rId8"/>
+    <sheet name="дубли БФО" sheetId="9" r:id="rId2"/>
+    <sheet name="62" sheetId="4" r:id="rId3"/>
+    <sheet name="66" sheetId="2" r:id="rId4"/>
+    <sheet name="67" sheetId="3" r:id="rId5"/>
+    <sheet name="70" sheetId="6" r:id="rId6"/>
+    <sheet name="72" sheetId="7" r:id="rId7"/>
+    <sheet name="74" sheetId="8" r:id="rId8"/>
+    <sheet name="Ручные проверки" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Реестр запросов чек-листа'!$A$1:$N$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Ручные проверки'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Ручные проверки'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="349">
   <si>
     <t>description</t>
   </si>
@@ -1727,6 +1728,137 @@
   </si>
   <si>
     <t>у мембера может быть такая роль!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  with ep as
+(
+select distinct replace(tp.entity,'.xsd','-definition.xml') entity_def,targetnamespace ep
+from tableparts tp 
+join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+-- where lower(targetnamespace) not similar to ('%support%')
+order by 1
+),
+df as 
+(
+        select replace(entity,'.xsd','-definition.xml') entity,array_agg(distinct dim_def) dim_def
+        from
+        (
+        select tp.entity,unnest(dim_def) dim_def
+        from tableparts tp 
+        join tables t on t.version=tp.version and t.namespace=tp.uri_table and t.rinok=tp.rinok
+        left join (
+                select dict_entity,array_agg(dim||'#'||mem) dim_def
+                from
+                (
+                select e.qname dim,em.qname mem,e.entity,em.entity,a.entity,split_part(a.entity,'-definition.xml',1)||'.xsd' dict_entity,a.arcrole
+                from locators l 
+                join arcs a on a.version=l.version and a.rinok=l.rinok and a.entity=l.entity and a.arcfrom=l.label and a.parentrole=l.parentrole and arcrole='http://xbrl.org/int/dim/arcrole/dimension-default'
+                join locators lm on  a.version=lm.version and a.rinok=lm.rinok and a.entity=lm.entity and a.arcto=lm.label and a.parentrole=lm.parentrole
+                join elements e on e.id=l.href_id and e.version=l.version
+                join elements em on em.id=lm.href_id and em.version=lm.version
+                ) z
+                group by dict_entity
+                ) df on df.dict_entity = ANY(string_to_array(imports,';'))
+        ) ee 
+        group by replace(entity,'.xsd','-definition.xml')
+),
+def as
+(
+ select l.version,l.rinok,l.entity,l.parentrole,e.qname,l.label,arcfrom,arcto,arcrole,e.type,coalesce(e.abstract,'false') abstract,a.usable,targetrole,
+         case when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' and coalesce(e.type,'')!='nonnum:domainItemType' then 1
+         when arcrole='http://xbrl.org/int/dim/arcrole/hypercube-dimension' then 2
+         when arcrole='http://xbrl.org/int/dim/arcrole/dimension-domain' then 3
+         when arcrole='http://xbrl.org/int/dim/arcrole/domain-member' then 4 
+         when arcrole='http://xbrl.org/int/dim/arcrole/notAll' then 5 
+         when arcrole='http://xbrl.org/int/dim/arcrole/all' then 0 else -1 end type_elem,
+  typeddomainref
+        from locators l
+        join elements e on e.id=href_id and e.version=l.version
+        join arcs a on a.arcto=l.label and l.version=a.version and l.rinok=a.rinok and l.entity=a.entity and a.parentrole=l.parentrole
+        and a.arctype='definition' and l.rinok!='bfo' and e.rinok!='eps'
+--  and l.parentrole in ('http://www.cbr.ru/xbrl/bfo/rep/2023-11-30/tab/FR_4_003_05_01',
+-- 'http://www.cbr.ru/xbrl/bfo/rep/2023-11-30/tab/FR_4_003_05a_01_39',
+-- 'http://www.cbr.ru/xbrl/bfo/rep/2023-11-30/tab/FR_4_003_05b_01',
+-- 'http://www.cbr.ru/xbrl/bfo/rep/2023-11-30/tab/FR_4_003_05c_01')
+        order by arcrole
+),
+dd as
+(
+WITH RECURSIVE recursive_hierarchy AS ( 
+  SELECT 
+    version,rinok,entity,parentrole,targetrole,qname AS child_qname, 
+    qname AS parent_qname,  -- Сохраняем "qname" родителя 
+    arcfrom, 
+    arcto, 
+    label, 
+    type_elem,typeddomainref
+  FROM 
+    def z
+  WHERE 
+    type_elem = 2  -- Начинаем с элементов типа 2 
+  UNION ALL 
+  SELECT 
+    c.version,c.rinok,c.entity,c.parentrole,c.targetrole,c.qname AS child_qname, 
+    p.parent_qname,  -- Передаем "qname" родителя 
+    c.arcfrom, 
+    c.arcto, 
+    c.label, 
+    c.type_elem,c.typeddomainref
+  FROM 
+    def c 
+  INNER JOIN 
+    recursive_hierarchy p ON c.arcfrom = p.arcto and c.version=p.version and c.rinok=p.rinok and c.entity=p.entity and c.parentrole=p.parentrole  
+  WHERE 
+    c.type_elem IN (3, 4)  -- Дети могут быть типа 3 или 4 
+)
+select version,rinok,entity,parentrole,string_to_array(unnest(generate_combinations(array_agg(dims))),'|') dims
+ from
+ (
+select version,rinok,entity,parentrole,targetrole,parent_qname dim,
+string_agg(parent_qname||case when child_qname=parent_qname then '' else '#' end||case when child_qname=parent_qname then '' else child_qname end,'|') dims
+FROM 
+recursive_hierarchy
+where (type_elem&gt;2 and typeddomainref is null or type_elem&gt;=2 and typeddomainref is not null)
+group by version,rinok,entity,parentrole,targetrole,parent_qname 
+  )dd
+group by version,rinok,entity,parentrole  
+)
+  select version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';') dimensions,
+   array_length(array_agg(distinct parentrole),1) cnt,string_agg(distinct parentrole,';')
+  from
+  (
+    select distinct dd.version,dd.rinok,dd.entity,parentrole,rt.definition parentrole_text,concept,remove_elements_from_array(dims,dim_def) dimensions,dims
+        from
+        (
+        select cc.version,cc.rinok,cc.entity,cc.parentrole,cc.qname concept,dims,
+  compare_arrays(dims,dims_minus) is_minus
+        from 
+        (
+        select version,rinok,entity,parentrole,qname,arcfrom,label,usable,targetrole 
+        from def
+        where type_elem=1
+        and abstract='false'
+        ) cc 
+        left join dd using (version,rinok,entity,parentrole)
+        left join 
+        (
+  select d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom,array_agg(array_to_string(dims,';')) dims_minus
+        from def d1 
+        join dd d2 on d1.version=d2.version and d1.rinok=d2.rinok and d2.parentrole=d1.targetrole
+  and d1.type_elem=5
+  group by d1.version,d1.rinok,d1.entity,d1.parentrole,d1.arcfrom
+        ) tr on tr.version=cc.version and cc.rinok=tr.rinok and cc.entity=tr.entity and cc.parentrole=tr.parentrole and tr.arcfrom=cc.label
+  ) dd
+  left join df on df.entity=dd.entity 
+        left join roletypes rt on rt.roleuri=dd.parentrole
+        where is_minus=0
+  ) zz
+  left join ep on ep.entity_def=zz.entity
+  --where concept='ifrs-ru:AktivyOtchetnyxSegmentov'
+   group by version,rinok,ep,concept,array_to_string(coalesce(array_unique(dimensions),'{}'),';')
+   having array_length(array_agg(distinct parentrole),1)&gt;1
+        order by version,rinok,ep,concept
+</t>
   </si>
 </sst>
 </file>
@@ -2985,8 +3117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3790,7 +3922,7 @@
         <v>142</v>
       </c>
       <c r="E42" s="45"/>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="57" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4446,6 +4578,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="136.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -4480,7 +4635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4495,7 +4650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4510,7 +4665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4564,7 +4719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:A8"/>
   <sheetViews>
@@ -4591,7 +4746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4606,7 +4761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE58A5-99E7-4AA1-ACD7-740EC81E6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Реестр запросов чек-листа" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Реестр запросов чек-листа'!$A$1:$N$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Ручные проверки'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1864,7 +1865,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2036,7 +2037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2093,6 +2094,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2213,7 +2220,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2386,9 +2393,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2403,6 +2407,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2443,7 +2453,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="image003">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2532,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2581,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2630,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="image001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2709,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2751,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2793,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2825,7 +2835,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,29 +3124,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="68" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.85546875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="87" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="77.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5703125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.44140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="77.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5546875" style="55" customWidth="1"/>
     <col min="8" max="8" width="37" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.140625" style="1"/>
+    <col min="9" max="12" width="9.109375" style="1"/>
     <col min="13" max="13" width="64" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>167</v>
       </c>
@@ -3157,7 +3167,7 @@
       </c>
       <c r="G1" s="54"/>
     </row>
-    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3171,11 +3181,11 @@
         <v>159</v>
       </c>
       <c r="E2" s="45"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="57" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3189,11 +3199,11 @@
         <v>159</v>
       </c>
       <c r="E3" s="45"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="57" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3207,11 +3217,11 @@
         <v>159</v>
       </c>
       <c r="E4" s="45"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3225,11 +3235,11 @@
         <v>159</v>
       </c>
       <c r="E5" s="45"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="57" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3247,7 +3257,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3265,7 +3275,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3286,7 +3296,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3300,7 +3310,7 @@
         <v>159</v>
       </c>
       <c r="E9" s="45"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="57" t="s">
         <v>342</v>
       </c>
       <c r="G9" s="55" t="s">
@@ -3310,7 +3320,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3328,7 +3338,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3346,7 +3356,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3364,7 +3374,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="216" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3384,7 +3394,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3422,7 +3432,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3440,7 +3450,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3458,7 +3468,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3476,7 +3486,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3494,7 +3504,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3512,7 +3522,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3551,7 +3561,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3569,7 +3579,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3587,7 +3597,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3605,7 +3615,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3623,7 +3633,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3641,7 +3651,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3659,7 +3669,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3677,7 +3687,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3695,7 +3705,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3734,7 +3744,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3752,7 +3762,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3766,14 +3776,14 @@
         <v>134</v>
       </c>
       <c r="E34" s="45"/>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="57" t="s">
         <v>282</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3791,7 +3801,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3809,7 +3819,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3830,7 +3840,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3871,7 +3881,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3890,7 +3900,7 @@
       </c>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3908,7 +3918,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3926,7 +3936,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3962,7 +3972,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3980,7 +3990,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3998,7 +4008,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4016,7 +4026,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4030,11 +4040,11 @@
         <v>147</v>
       </c>
       <c r="E48" s="45"/>
-      <c r="F48" s="60" t="s">
+      <c r="F48" s="59" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4055,7 +4065,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4073,7 +4083,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4091,7 +4101,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4109,7 +4119,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4127,7 +4137,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4145,7 +4155,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4163,7 +4173,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4181,7 +4191,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4199,7 +4209,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4217,7 +4227,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4235,7 +4245,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -4251,12 +4261,12 @@
       <c r="E60" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="58" t="s">
+      <c r="F60" s="63" t="s">
         <v>326</v>
       </c>
       <c r="G60" s="55"/>
     </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="37">
         <v>60</v>
       </c>
@@ -4272,12 +4282,12 @@
       <c r="E61" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F61" s="58" t="s">
+      <c r="F61" s="64" t="s">
         <v>337</v>
       </c>
       <c r="G61" s="55"/>
     </row>
-    <row r="62" spans="1:7" s="8" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -4298,8 +4308,8 @@
       </c>
       <c r="G62" s="55"/>
     </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61">
+    <row r="63" spans="1:7" s="8" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="60">
         <v>62</v>
       </c>
       <c r="B63" s="38" t="s">
@@ -4314,13 +4324,13 @@
       <c r="E63" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F63" s="58" t="s">
+      <c r="F63" s="63" t="s">
         <v>314</v>
       </c>
       <c r="G63" s="55"/>
     </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+    <row r="64" spans="1:7" s="8" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="60"/>
       <c r="B64" s="38" t="s">
         <v>179</v>
       </c>
@@ -4333,12 +4343,12 @@
       <c r="E64" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="F64" s="58" t="s">
+      <c r="F64" s="63" t="s">
         <v>313</v>
       </c>
       <c r="G64" s="55"/>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="32">
         <v>63</v>
       </c>
@@ -4354,7 +4364,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="32">
         <v>64</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="32">
         <v>65</v>
       </c>
@@ -4386,7 +4396,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="32">
         <v>66</v>
       </c>
@@ -4402,7 +4412,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A69" s="32">
         <v>67</v>
       </c>
@@ -4414,14 +4424,14 @@
       </c>
       <c r="D69" s="33"/>
       <c r="E69" s="45"/>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="57" t="s">
         <v>336</v>
       </c>
       <c r="G69" s="55" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="32">
         <v>68</v>
       </c>
@@ -4437,7 +4447,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A71" s="32">
         <v>69</v>
       </c>
@@ -4455,7 +4465,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="32">
         <v>70</v>
       </c>
@@ -4471,7 +4481,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="32">
         <v>71</v>
       </c>
@@ -4486,7 +4496,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="39">
         <v>72</v>
       </c>
@@ -4501,7 +4511,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="35">
         <v>73</v>
       </c>
@@ -4520,7 +4530,7 @@
       </c>
       <c r="H75" s="53"/>
     </row>
-    <row r="76" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A76" s="50">
         <v>74</v>
       </c>
@@ -4531,11 +4541,11 @@
         <v>257</v>
       </c>
       <c r="D76" s="50"/>
-      <c r="F76" s="59" t="s">
+      <c r="F76" s="58" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -4568,7 +4578,7 @@
       <c r="H78" s="53"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N78"/>
+  <autoFilter ref="A1:N78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A63:A64"/>
   </mergeCells>
@@ -4578,19 +4588,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="136.42578125" customWidth="1"/>
+    <col min="1" max="1" width="136.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>348</v>
       </c>
@@ -4601,29 +4609,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="114.5703125" customWidth="1"/>
+    <col min="1" max="1" width="114.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -4636,14 +4644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4651,14 +4659,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4666,26 +4674,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="93.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
-    <col min="3" max="3" width="112.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="93.5546875" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" customWidth="1"/>
+    <col min="3" max="3" width="112.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>247</v>
       </c>
@@ -4696,7 +4704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>250</v>
       </c>
@@ -4707,12 +4715,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4720,21 +4728,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A7:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>254</v>
       </c>
@@ -4747,14 +4755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4762,7 +4770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4772,17 +4780,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="20" customWidth="1"/>
     <col min="2" max="2" width="79" style="21" customWidth="1"/>
-    <col min="3" max="3" width="152.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="152.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
     <col min="6" max="6" width="200" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>188</v>
       </c>
@@ -4796,15 +4804,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A2" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1</v>
       </c>
@@ -4814,7 +4822,7 @@
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -4823,9 +4831,9 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="63"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="62"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -4834,10 +4842,10 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="63"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -4849,15 +4857,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A7" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-    </row>
-    <row r="8" spans="1:6" ht="300.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+    </row>
+    <row r="8" spans="1:6" ht="289.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -4869,7 +4877,7 @@
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="69" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -4881,7 +4889,7 @@
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -4893,7 +4901,7 @@
       </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -4905,7 +4913,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -4917,7 +4925,7 @@
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -4929,7 +4937,7 @@
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -4941,7 +4949,7 @@
       </c>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -4953,7 +4961,7 @@
       </c>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -4965,7 +4973,7 @@
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -4977,7 +4985,7 @@
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -4989,7 +4997,7 @@
       </c>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -5001,7 +5009,7 @@
       </c>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -5013,7 +5021,7 @@
       </c>
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -5025,7 +5033,7 @@
       </c>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -5037,7 +5045,7 @@
       </c>
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -5049,7 +5057,7 @@
       </c>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>21</v>
       </c>
@@ -5061,7 +5069,7 @@
       </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>22</v>
       </c>
@@ -5073,7 +5081,7 @@
       </c>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>23</v>
       </c>
@@ -5085,7 +5093,7 @@
       </c>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>24</v>
       </c>
@@ -5097,7 +5105,7 @@
       </c>
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>25</v>
       </c>
@@ -5109,7 +5117,7 @@
       </c>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -5121,7 +5129,7 @@
       </c>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <v>27</v>
       </c>
@@ -5133,7 +5141,7 @@
       </c>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>28</v>
       </c>
@@ -5145,7 +5153,7 @@
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>29</v>
       </c>
@@ -5157,7 +5165,7 @@
       </c>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>30</v>
       </c>
@@ -5169,7 +5177,7 @@
       </c>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>31</v>
       </c>
@@ -5181,7 +5189,7 @@
       </c>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="372.6" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>32</v>
       </c>
@@ -5193,7 +5201,7 @@
       </c>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>33</v>
       </c>
@@ -5205,7 +5213,7 @@
       </c>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <v>34</v>
       </c>
@@ -5217,7 +5225,7 @@
       </c>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="138" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>35</v>
       </c>
@@ -5231,15 +5239,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
+    <row r="39" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A39" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-    </row>
-    <row r="40" spans="1:4" ht="171" x14ac:dyDescent="0.25">
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+    </row>
+    <row r="40" spans="1:4" ht="165.6" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <f>A38+1</f>
         <v>36</v>
@@ -5254,7 +5262,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <f>A40+1</f>
         <v>37</v>
@@ -5269,7 +5277,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <f>A41+1</f>
         <v>38</v>
@@ -5282,7 +5290,7 @@
       </c>
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <f>A42+1</f>
         <v>39</v>
@@ -5295,7 +5303,7 @@
       </c>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <f>A43+1</f>
         <v>40</v>
@@ -5308,15 +5316,15 @@
       </c>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
+    <row r="45" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A45" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <f>A44+1</f>
         <v>41</v>
@@ -5327,7 +5335,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <f t="shared" ref="A47:A52" si="0">A46+1</f>
         <v>42</v>
@@ -5338,7 +5346,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="19"/>
     </row>
-    <row r="48" spans="1:4" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5349,7 +5357,7 @@
       <c r="C48" s="13"/>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5360,7 +5368,7 @@
       <c r="C49" s="13"/>
       <c r="D49" s="19"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5371,7 +5379,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="19"/>
     </row>
-    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5382,7 +5390,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="19"/>
     </row>
-    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5393,15 +5401,15 @@
       <c r="C52" s="13"/>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
+    <row r="53" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A53" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-    </row>
-    <row r="54" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+    </row>
+    <row r="54" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <f>A52+1</f>
         <v>48</v>
@@ -5412,7 +5420,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="19"/>
     </row>
-    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <f>A54+1</f>
         <v>49</v>
@@ -5423,7 +5431,7 @@
       <c r="C55" s="13"/>
       <c r="D55" s="19"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <f>A55+1</f>
         <v>50</v>
@@ -5435,7 +5443,7 @@
       <c r="D56" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <mergeCells count="6">
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A2:D2"/>

--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyPyProjects\checkList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAE58A5-99E7-4AA1-ACD7-740EC81E6A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="Реестр запросов чек-листа" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Реестр запросов чек-листа'!$A$1:$N$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Ручные проверки'!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="354">
   <si>
     <t>description</t>
   </si>
@@ -220,9 +219,6 @@
   </si>
   <si>
     <t>V_TR_29_w_ep</t>
-  </si>
-  <si>
-    <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа)</t>
   </si>
   <si>
     <t>V_TR_30</t>
@@ -1615,9 +1611,6 @@
     <t>1) Модуль НПФ. ifrs-ru:ReklamaIMarketing заменен на ifrs-ru:ReklamaIMarketing111 (valueAssertion_5)</t>
   </si>
   <si>
-    <t>Ссылка на несущ роль в словаре</t>
-  </si>
-  <si>
     <t xml:space="preserve">Тип показателя </t>
   </si>
   <si>
@@ -1710,15 +1703,9 @@
     <t>1) Модуль ССД. 0420154. Из definition через Notepad++ удалена роль, содержащая List, на которую ссылается nfo-dic_StandartMSFOEnumerator (роль листа: http://www.cbr.ru/xbrl/nso/nfo/dic/StandartMSFOList)</t>
   </si>
   <si>
-    <t>не должно быть нигде кроме месседжа в формуле и наименовании роли, documentation</t>
-  </si>
-  <si>
     <t>1) Модуль НПФ. 0420253, formula.xml. Удален namespace "http://www.xbrl.org/2003/instance"</t>
   </si>
   <si>
-    <t>еще раз подтвердить</t>
-  </si>
-  <si>
     <t>1) Модуль БКИ. 0420758. В таблицу (единственная в схеме) добавлен еще один RuleNode с концептом "Примечание" ("Примечание" получается два раза в таблице)</t>
   </si>
   <si>
@@ -1726,9 +1713,6 @@
   </si>
   <si>
     <t>???</t>
-  </si>
-  <si>
-    <t>у мембера может быть такая роль!</t>
   </si>
   <si>
     <t xml:space="preserve">  with ep as
@@ -1861,11 +1845,41 @@
         order by version,rinok,ep,concept
 </t>
   </si>
+  <si>
+    <t>Нужно доделать</t>
+  </si>
+  <si>
+    <t>Предлагаю объединить с 74 (нужно доделать)</t>
+  </si>
+  <si>
+    <t>46 проверка общая</t>
+  </si>
+  <si>
+    <t>нужно доделать</t>
+  </si>
+  <si>
+    <t>ПРОВЕРЯЕТСЯ ПРИ ЗАГРУЗКЕ В БД</t>
+  </si>
+  <si>
+    <t>БФО</t>
+  </si>
+  <si>
+    <t>надо доделать</t>
+  </si>
+  <si>
+    <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) БФО</t>
+  </si>
+  <si>
+    <t>Добавить проверку скобок</t>
+  </si>
+  <si>
+    <t>для надзорки</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2037,7 +2051,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2100,6 +2114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2220,7 +2240,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2366,9 +2386,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2378,9 +2395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2399,6 +2413,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2409,10 +2432,28 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2453,7 +2494,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="image003">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2573,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2622,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2671,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="image001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2750,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,7 +2792,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2834,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2835,7 +2876,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3124,257 +3165,263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.44140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="11.44140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="77.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5546875" style="55" customWidth="1"/>
-    <col min="8" max="8" width="37" style="1" customWidth="1"/>
-    <col min="9" max="12" width="9.109375" style="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="77.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.5703125" style="53" customWidth="1"/>
+    <col min="8" max="8" width="37" style="53" customWidth="1"/>
+    <col min="9" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="64" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" s="45"/>
-      <c r="F2" s="57" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="F2" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>94</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="45"/>
-      <c r="F3" s="57" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="45"/>
-      <c r="F4" s="57" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="F4" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>98</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="45"/>
-      <c r="F5" s="57" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F5" s="55" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>100</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="45"/>
-      <c r="F6" s="57" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F6" s="55" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>102</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="45"/>
-      <c r="F7" s="57" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="55" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>104</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="45"/>
-      <c r="F9" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>346</v>
-      </c>
-      <c r="H9" s="49" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F9" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>108</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="45"/>
-      <c r="F10" s="57" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10" s="55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>110</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="45"/>
-      <c r="F11" s="57" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11" s="55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>112</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="45"/>
-      <c r="F12" s="57" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="216" x14ac:dyDescent="0.3">
+      <c r="F12" s="55" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3385,16 +3432,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3405,16 +3452,16 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3425,14 +3472,14 @@
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="46"/>
-      <c r="F15" s="57" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F15" s="55" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3443,14 +3490,14 @@
         <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="45"/>
-      <c r="F16" s="57" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="F16" s="55" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3461,14 +3508,14 @@
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="45"/>
-      <c r="F17" s="57" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F17" s="55" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3479,14 +3526,14 @@
         <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="45"/>
-      <c r="F18" s="57" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F18" s="55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3497,14 +3544,14 @@
         <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="45"/>
-      <c r="F19" s="57" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F19" s="55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3515,14 +3562,14 @@
         <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="45"/>
-      <c r="F20" s="57" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F20" s="55" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3533,17 +3580,14 @@
         <v>18</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="45"/>
-      <c r="F21" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="G21" s="55" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F21" s="55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3554,14 +3598,14 @@
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="45"/>
-      <c r="F22" s="57" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F22" s="55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3572,14 +3616,14 @@
         <v>22</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="45"/>
-      <c r="F23" s="57" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="F23" s="55" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3590,14 +3634,14 @@
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="45"/>
-      <c r="F24" s="57" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F24" s="55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3608,14 +3652,14 @@
         <v>26</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="45"/>
-      <c r="F25" s="57" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="F25" s="55" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3626,14 +3670,14 @@
         <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="45"/>
-      <c r="F26" s="57" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="F26" s="55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3644,14 +3688,14 @@
         <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="45"/>
-      <c r="F27" s="57" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3662,14 +3706,14 @@
         <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E28" s="45"/>
-      <c r="F28" s="57" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F28" s="55" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3680,14 +3724,14 @@
         <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E29" s="45"/>
-      <c r="F29" s="57" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="F29" s="55" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3698,14 +3742,14 @@
         <v>35</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="45"/>
-      <c r="F30" s="57" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3716,14 +3760,14 @@
         <v>37</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="45"/>
-      <c r="F31" s="57" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="55" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3734,17 +3778,15 @@
         <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E32" s="45"/>
-      <c r="F32" s="57" t="s">
-        <v>284</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F32" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3755,14 +3797,14 @@
         <v>41</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33" s="45"/>
-      <c r="F33" s="57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F33" s="55" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3773,17 +3815,14 @@
         <v>43</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" s="45"/>
-      <c r="F34" s="57" t="s">
-        <v>282</v>
-      </c>
-      <c r="G34" s="55" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F34" s="55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3794,14 +3833,14 @@
         <v>45</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="45"/>
-      <c r="F35" s="57" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F35" s="55" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3812,14 +3851,14 @@
         <v>47</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E36" s="45"/>
-      <c r="F36" s="57" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F36" s="55" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3830,17 +3869,14 @@
         <v>49</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E37" s="45"/>
-      <c r="F37" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G37" s="55" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F37" s="55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3851,14 +3887,14 @@
         <v>51</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E38" s="45"/>
-      <c r="F38" s="57" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="55" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3869,19 +3905,17 @@
         <v>53</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>258</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="H39" s="49" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>318</v>
+      </c>
+      <c r="H39" s="60"/>
+    </row>
+    <row r="40" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3892,15 +3926,15 @@
         <v>55</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E40" s="45"/>
-      <c r="F40" s="57" t="s">
-        <v>292</v>
+      <c r="F40" s="55" t="s">
+        <v>291</v>
       </c>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3911,14 +3945,14 @@
         <v>57</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E41" s="45"/>
-      <c r="F41" s="57" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="55" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3929,14 +3963,14 @@
         <v>59</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E42" s="45"/>
-      <c r="F42" s="57" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="55" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3944,641 +3978,677 @@
         <v>60</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>61</v>
+        <v>351</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E43" s="45"/>
-      <c r="F43" s="44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="29" t="s">
-        <v>63</v>
-      </c>
       <c r="D44" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E44" s="45"/>
-      <c r="F44" s="57" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F44" s="55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="29" t="s">
         <v>64</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>65</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="42" t="s">
-        <v>67</v>
-      </c>
       <c r="D46" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E46" s="45"/>
       <c r="F46" s="44" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+      <c r="H46" s="53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="D47" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="45"/>
-      <c r="F47" s="57" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E48" s="45"/>
-      <c r="F48" s="59" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="57" t="s">
+        <v>305</v>
+      </c>
+      <c r="H48" s="53" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="45"/>
+      <c r="F49" s="55" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="64">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="D49" s="3" t="s">
+      <c r="C50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G49" s="55" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="E50" s="45"/>
-      <c r="F50" s="57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F50" s="55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E51" s="45"/>
       <c r="F51" s="44" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E52" s="45"/>
       <c r="F52" s="44" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+      <c r="H52" s="53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="29" t="s">
-        <v>79</v>
-      </c>
       <c r="D53" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E53" s="45"/>
-      <c r="F53" s="57" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="F53" s="55" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>81</v>
-      </c>
       <c r="D54" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E54" s="45"/>
-      <c r="F54" s="57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>338</v>
+        <v>81</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>336</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E55" s="45"/>
-      <c r="F55" s="57" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="55" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E56" s="45"/>
-      <c r="F56" s="57" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F56" s="55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="29" t="s">
-        <v>85</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E57" s="45"/>
-      <c r="F57" s="57" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="55" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>87</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E58" s="45"/>
-      <c r="F58" s="57" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="29" t="s">
-        <v>89</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E59" s="45"/>
-      <c r="F59" s="57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F59" s="55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>59</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="E60" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F60" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="G60" s="55"/>
-    </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="F60" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+    </row>
+    <row r="61" spans="1:8" s="8" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37">
         <v>60</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="E61" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F61" s="64" t="s">
-        <v>337</v>
-      </c>
-      <c r="G61" s="55"/>
-    </row>
-    <row r="62" spans="1:7" s="8" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="F61" s="59" t="s">
+        <v>335</v>
+      </c>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="8" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+    </row>
+    <row r="63" spans="1:8" s="8" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="61">
+        <v>62</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E63" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+    </row>
+    <row r="64" spans="1:8" s="8" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="61"/>
+      <c r="B64" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F62" s="57" t="s">
-        <v>294</v>
-      </c>
-      <c r="G62" s="55"/>
-    </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="60">
-        <v>62</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F63" s="63" t="s">
-        <v>314</v>
-      </c>
-      <c r="G63" s="55"/>
-    </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="60"/>
-      <c r="B64" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="G64" s="55"/>
-    </row>
-    <row r="65" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="32">
-        <v>63</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>183</v>
-      </c>
-      <c r="D65" s="34"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="57" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C65" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D65" s="67"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="69" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="32">
         <v>64</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="34"/>
       <c r="E66" s="45"/>
-      <c r="F66" s="57" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F66" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" s="71" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="32">
         <v>65</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D67" s="34"/>
       <c r="E67" s="45"/>
       <c r="F67" s="44" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+      <c r="H67" s="53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="32">
         <v>66</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D68" s="34"/>
       <c r="E68" s="45"/>
-      <c r="F68" s="57" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F68" s="55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A69" s="32">
         <v>67</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D69" s="33"/>
       <c r="E69" s="45"/>
-      <c r="F69" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="G69" s="55" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F69" s="55" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>68</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="45"/>
-      <c r="F70" s="57" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="F70" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="32">
         <v>69</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E71" s="45"/>
       <c r="F71" s="44" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+      <c r="H71" s="53" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="32">
         <v>70</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="45"/>
-      <c r="F72" s="57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="F72" s="55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="32">
         <v>71</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D73" s="3"/>
-      <c r="F73" s="57" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F73" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="H73" s="70" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>72</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D74" s="35"/>
-      <c r="F74" s="57" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F74" s="55" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>73</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D75" s="35"/>
       <c r="F75" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="G75" s="56" t="s">
-        <v>318</v>
-      </c>
-      <c r="H75" s="53"/>
-    </row>
-    <row r="76" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="50">
+        <v>314</v>
+      </c>
+      <c r="G75" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="H75" s="60" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A76" s="49">
         <v>74</v>
       </c>
-      <c r="B76" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="D76" s="50"/>
-      <c r="F76" s="58" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B76" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" s="49"/>
+      <c r="F76" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="H76" s="53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="G77" s="55" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F77" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="G77" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="H77" s="53" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="52" t="s">
-        <v>345</v>
-      </c>
-      <c r="H78" s="53"/>
+      <c r="F78" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="H78" s="60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N78" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N78"/>
   <mergeCells count="1">
     <mergeCell ref="A63:A64"/>
   </mergeCells>
@@ -4588,19 +4658,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="136.44140625" customWidth="1"/>
+    <col min="1" max="1" width="136.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4609,31 +4681,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="114.5546875" customWidth="1"/>
+    <col min="1" max="1" width="114.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4644,14 +4716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4659,14 +4731,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4674,53 +4746,53 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.5546875" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" customWidth="1"/>
-    <col min="3" max="3" width="112.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="93.5703125" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="112.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="C2" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="C2" s="26" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="B3" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -4728,23 +4800,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4755,14 +4827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4770,7 +4842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4780,104 +4852,104 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="79" style="21" customWidth="1"/>
-    <col min="3" max="3" width="152.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="3" max="3" width="152.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
     <col min="6" max="6" width="200" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-    </row>
-    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="62"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="63"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="1"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-    </row>
-    <row r="8" spans="1:6" ht="289.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+    </row>
+    <row r="8" spans="1:6" ht="300.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>198</v>
-      </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -4885,23 +4957,23 @@
         <v>6</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -4909,11 +4981,11 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -4921,11 +4993,11 @@
         <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -4933,11 +5005,11 @@
         <v>14</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -4945,11 +5017,11 @@
         <v>16</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -4957,11 +5029,11 @@
         <v>18</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>13</v>
       </c>
@@ -4969,11 +5041,11 @@
         <v>20</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -4981,11 +5053,11 @@
         <v>22</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -4993,11 +5065,11 @@
         <v>24</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>16</v>
       </c>
@@ -5005,11 +5077,11 @@
         <v>26</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -5017,11 +5089,11 @@
         <v>28</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D20" s="18"/>
     </row>
-    <row r="21" spans="1:4" ht="138" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -5029,11 +5101,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="18"/>
     </row>
-    <row r="22" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -5041,11 +5113,11 @@
         <v>33</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D22" s="18"/>
     </row>
-    <row r="23" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -5053,23 +5125,23 @@
         <v>35</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>207</v>
-      </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>22</v>
       </c>
@@ -5077,11 +5149,11 @@
         <v>39</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="14"/>
     </row>
-    <row r="26" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>23</v>
       </c>
@@ -5089,11 +5161,11 @@
         <v>41</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" s="14"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>24</v>
       </c>
@@ -5101,11 +5173,11 @@
         <v>43</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>25</v>
       </c>
@@ -5113,11 +5185,11 @@
         <v>45</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -5125,11 +5197,11 @@
         <v>47</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>27</v>
       </c>
@@ -5137,11 +5209,11 @@
         <v>49</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="14"/>
     </row>
-    <row r="31" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>28</v>
       </c>
@@ -5149,11 +5221,11 @@
         <v>51</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>29</v>
       </c>
@@ -5161,289 +5233,289 @@
         <v>53</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="14"/>
     </row>
-    <row r="33" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>30</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>210</v>
-      </c>
       <c r="D33" s="14"/>
     </row>
-    <row r="34" spans="1:4" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>31</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>212</v>
-      </c>
       <c r="D34" s="14"/>
     </row>
-    <row r="35" spans="1:4" ht="372.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>32</v>
       </c>
       <c r="B35" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>214</v>
-      </c>
       <c r="D35" s="14"/>
     </row>
-    <row r="36" spans="1:4" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>33</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D36" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>34</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="14"/>
     </row>
-    <row r="38" spans="1:4" ht="138" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>35</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="14" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A39" s="62" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-    </row>
-    <row r="40" spans="1:4" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" spans="1:4" ht="171" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <f>A38+1</f>
         <v>36</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <f>A40+1</f>
         <v>37</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="13" t="s">
-        <v>224</v>
-      </c>
       <c r="D41" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <f>A41+1</f>
         <v>38</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>226</v>
-      </c>
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <f>A42+1</f>
         <v>39</v>
       </c>
       <c r="B43" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>228</v>
-      </c>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <f>A43+1</f>
         <v>40</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
-        <v>231</v>
-      </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <f>A44+1</f>
         <v>41</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="19"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <f t="shared" ref="A47:A52" si="0">A46+1</f>
         <v>42</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="19"/>
     </row>
-    <row r="48" spans="1:4" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="19"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="19"/>
     </row>
-    <row r="51" spans="1:4" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="57" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="19"/>
     </row>
-    <row r="52" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="19"/>
     </row>
-    <row r="53" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A53" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-    </row>
-    <row r="54" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A53" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+    </row>
+    <row r="54" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <f>A52+1</f>
         <v>48</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="19"/>
     </row>
-    <row r="55" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <f>A54+1</f>
         <v>49</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="19"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <f>A55+1</f>
         <v>50</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:D1"/>
   <mergeCells count="6">
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A2:D2"/>

--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -3168,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>

--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -2422,6 +2422,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2430,30 +2454,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2494,7 +2494,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="image003">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2573,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2622,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2671,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="image001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2750,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2792,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2834,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2876,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3168,8 +3168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4106,7 +4106,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64">
+      <c r="A50" s="61">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -4360,7 +4360,7 @@
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="1:8" s="8" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="61">
+      <c r="A63" s="69">
         <v>62</v>
       </c>
       <c r="B63" s="38" t="s">
@@ -4382,7 +4382,7 @@
       <c r="H63" s="53"/>
     </row>
     <row r="64" spans="1:8" s="8" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="61"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="38" t="s">
         <v>178</v>
       </c>
@@ -4402,18 +4402,18 @@
       <c r="H64" s="53"/>
     </row>
     <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="65">
+      <c r="A65" s="62">
         <v>63</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="69" t="s">
+      <c r="D65" s="64"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="66" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       <c r="F66" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="H66" s="71" t="s">
+      <c r="H66" s="68" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4554,7 +4554,7 @@
       <c r="F73" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="H73" s="70" t="s">
+      <c r="H73" s="67" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4877,12 +4877,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="63"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -4914,7 +4914,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="63"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4930,12 +4930,12 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:6" ht="300.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -5312,12 +5312,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
     </row>
     <row r="40" spans="1:4" ht="171" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
@@ -5389,12 +5389,12 @@
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
@@ -5474,12 +5474,12 @@
       <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
     </row>
     <row r="54" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12">

--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="357">
   <si>
     <t>description</t>
   </si>
@@ -1874,6 +1874,15 @@
   </si>
   <si>
     <t>для надзорки</t>
+  </si>
+  <si>
+    <t>Различия в targetrole в definition с linkrole в table.</t>
+  </si>
+  <si>
+    <t>Проверка наличия схемы из support_all в точках входа</t>
+  </si>
+  <si>
+    <t>Наличие паразитных тэгов типа "xsd:group"</t>
   </si>
 </sst>
 </file>
@@ -2240,7 +2249,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2454,6 +2463,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2494,7 +2506,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="image003">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2585,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2634,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2671,7 +2683,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="image001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2750,7 +2762,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2804,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2834,7 +2846,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2876,7 +2888,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3166,10 +3178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4646,6 +4658,33 @@
         <v>341</v>
       </c>
       <c r="H78" s="60"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F79" s="72"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F80" s="72"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" s="72"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N78"/>

--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="356">
   <si>
     <t>description</t>
   </si>
@@ -1868,9 +1868,6 @@
   </si>
   <si>
     <t>Проверка совпадения точек данных в разных ролях def (с учетом точек входа) БФО</t>
-  </si>
-  <si>
-    <t>Добавить проверку скобок</t>
   </si>
   <si>
     <t>для надзорки</t>
@@ -2249,7 +2246,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2416,9 +2413,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2452,8 +2446,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2464,7 +2458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2506,7 +2500,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="image003">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2579,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2634,7 +2628,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2683,7 +2677,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="image001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2756,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2798,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2846,7 +2840,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2888,7 +2882,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,19 +3174,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.42578125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="77.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5703125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="13.140625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="68.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.140625" style="53" customWidth="1"/>
     <col min="8" max="8" width="37" style="53" customWidth="1"/>
     <col min="9" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="64" style="1" customWidth="1"/>
@@ -3223,7 +3217,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3358,7 +3352,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3796,7 +3790,7 @@
       <c r="F32" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="H32" s="60"/>
+      <c r="H32" s="59"/>
     </row>
     <row r="33" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -3925,7 +3919,7 @@
       <c r="F39" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="H39" s="60"/>
+      <c r="H39" s="59"/>
     </row>
     <row r="40" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -4092,7 +4086,7 @@
         <v>146</v>
       </c>
       <c r="E48" s="45"/>
-      <c r="F48" s="57" t="s">
+      <c r="F48" s="56" t="s">
         <v>305</v>
       </c>
       <c r="H48" s="53" t="s">
@@ -4118,7 +4112,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61">
+      <c r="A50" s="60">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -4319,7 +4313,7 @@
       <c r="E60" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="F60" s="58" t="s">
+      <c r="F60" s="57" t="s">
         <v>324</v>
       </c>
       <c r="G60" s="53"/>
@@ -4341,7 +4335,7 @@
       <c r="E61" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="F61" s="59" t="s">
+      <c r="F61" s="58" t="s">
         <v>335</v>
       </c>
       <c r="G61" s="53"/>
@@ -4372,7 +4366,7 @@
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="1:8" s="8" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="69">
+      <c r="A63" s="68">
         <v>62</v>
       </c>
       <c r="B63" s="38" t="s">
@@ -4387,14 +4381,14 @@
       <c r="E63" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="F63" s="58" t="s">
+      <c r="F63" s="57" t="s">
         <v>313</v>
       </c>
       <c r="G63" s="53"/>
       <c r="H63" s="53"/>
     </row>
     <row r="64" spans="1:8" s="8" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="69"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="38" t="s">
         <v>178</v>
       </c>
@@ -4407,25 +4401,25 @@
       <c r="E64" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="F64" s="58" t="s">
+      <c r="F64" s="57" t="s">
         <v>312</v>
       </c>
       <c r="G64" s="53"/>
       <c r="H64" s="53"/>
     </row>
     <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="62">
+      <c r="A65" s="61">
         <v>63</v>
       </c>
-      <c r="B65" s="63" t="s">
+      <c r="B65" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="66" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="65" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4444,9 +4438,7 @@
       <c r="F66" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="H66" s="68" t="s">
-        <v>352</v>
-      </c>
+      <c r="H66" s="59"/>
     </row>
     <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="32">
@@ -4566,8 +4558,8 @@
       <c r="F73" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="H73" s="67" t="s">
-        <v>353</v>
+      <c r="H73" s="66" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4602,7 +4594,7 @@
       <c r="G75" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="H75" s="60" t="s">
+      <c r="H75" s="59" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4617,11 +4609,8 @@
         <v>256</v>
       </c>
       <c r="D76" s="49"/>
-      <c r="F76" s="56" t="s">
+      <c r="F76" s="71" t="s">
         <v>302</v>
-      </c>
-      <c r="H76" s="53" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4657,34 +4646,34 @@
       <c r="F78" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="H78" s="60"/>
+      <c r="H78" s="59"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F79" s="72"/>
+        <v>353</v>
+      </c>
+      <c r="F79" s="67"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F80" s="72"/>
+        <v>354</v>
+      </c>
+      <c r="F80" s="67"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F81" s="72"/>
+        <v>355</v>
+      </c>
+      <c r="F81" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N78"/>
@@ -4701,7 +4690,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4916,12 +4905,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -4942,7 +4931,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="71"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -4953,7 +4942,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="71"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4969,12 +4958,12 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="69" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="1:6" ht="300.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -5351,12 +5340,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="70" t="s">
+      <c r="A39" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="B39" s="70"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
     </row>
     <row r="40" spans="1:4" ht="171" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
@@ -5428,12 +5417,12 @@
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="70"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
@@ -5513,12 +5502,12 @@
       <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
     </row>
     <row r="54" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12">

--- a/Копия_Проверка_таксономии_чек_лист_070923.xlsx
+++ b/Копия_Проверка_таксономии_чек_лист_070923.xlsx
@@ -2057,7 +2057,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2126,6 +2126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2246,7 +2252,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2449,6 +2455,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2458,7 +2467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2500,7 +2509,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="image003">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2579,7 +2588,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2637,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2686,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1" descr="image001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2756,7 +2765,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2807,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2840,7 +2849,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2882,7 +2891,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3174,8 +3183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -3238,7 +3247,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3256,7 +3265,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3295,7 +3304,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3313,7 +3322,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3331,7 +3340,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3373,7 +3382,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3391,7 +3400,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3409,7 +3418,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3447,7 +3456,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="345" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3503,7 +3512,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3521,7 +3530,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3539,7 +3548,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3557,7 +3566,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="360" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3593,7 +3602,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3629,7 +3638,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3647,7 +3656,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3665,7 +3674,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3683,7 +3692,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3737,7 +3746,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3792,7 +3801,7 @@
       </c>
       <c r="H32" s="59"/>
     </row>
-    <row r="33" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="300" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3810,7 +3819,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3828,7 +3837,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3846,7 +3855,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="225" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3864,7 +3873,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3882,7 +3891,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3921,7 +3930,7 @@
       </c>
       <c r="H39" s="59"/>
     </row>
-    <row r="40" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4015,7 +4024,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4033,7 +4042,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>144</v>
       </c>
       <c r="E46" s="45"/>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="72" t="s">
         <v>304</v>
       </c>
       <c r="H46" s="53" t="s">
@@ -4129,7 +4138,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4150,7 +4159,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4171,7 +4180,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4189,7 +4198,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4243,7 +4252,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="8" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="8" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A60" s="37">
         <v>59</v>
       </c>
@@ -4343,7 +4352,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="8" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="8" customFormat="1" ht="330" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>61</v>
       </c>
@@ -4366,7 +4375,7 @@
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="1:8" s="8" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="68">
+      <c r="A63" s="69">
         <v>62</v>
       </c>
       <c r="B63" s="38" t="s">
@@ -4388,7 +4397,7 @@
       <c r="H63" s="53"/>
     </row>
     <row r="64" spans="1:8" s="8" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="38" t="s">
         <v>178</v>
       </c>
@@ -4407,7 +4416,7 @@
       <c r="G64" s="53"/>
       <c r="H64" s="53"/>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="61">
         <v>63</v>
       </c>
@@ -4423,7 +4432,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="32">
         <v>64</v>
       </c>
@@ -4440,7 +4449,7 @@
       </c>
       <c r="H66" s="59"/>
     </row>
-    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A67" s="32">
         <v>65</v>
       </c>
@@ -4459,7 +4468,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="32">
         <v>66</v>
       </c>
@@ -4475,7 +4484,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="375" x14ac:dyDescent="0.25">
       <c r="A69" s="32">
         <v>67</v>
       </c>
@@ -4491,7 +4500,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="32">
         <v>68</v>
       </c>
@@ -4507,7 +4516,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="270" x14ac:dyDescent="0.25">
       <c r="A71" s="32">
         <v>69</v>
       </c>
@@ -4528,7 +4537,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="32">
         <v>70</v>
       </c>
@@ -4544,7 +4553,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="300" x14ac:dyDescent="0.25">
       <c r="A73" s="32">
         <v>71</v>
       </c>
@@ -4562,7 +4571,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>72</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="35">
         <v>73</v>
       </c>
@@ -4598,7 +4607,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A76" s="49">
         <v>74</v>
       </c>
@@ -4609,11 +4618,11 @@
         <v>256</v>
       </c>
       <c r="D76" s="49"/>
-      <c r="F76" s="71" t="s">
+      <c r="F76" s="68" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -4643,12 +4652,12 @@
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="51" t="s">
+      <c r="F78" s="55" t="s">
         <v>341</v>
       </c>
       <c r="H78" s="59"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4657,7 +4666,7 @@
       </c>
       <c r="F79" s="67"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4666,7 +4675,7 @@
       </c>
       <c r="F80" s="67"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4905,12 +4914,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
@@ -4931,7 +4940,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="70"/>
+      <c r="E4" s="71"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -4942,7 +4951,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4958,12 +4967,12 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:6" ht="300.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -5340,12 +5349,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
     </row>
     <row r="40" spans="1:4" ht="171" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
@@ -5417,12 +5426,12 @@
       <c r="D44" s="14"/>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="70" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
@@ -5502,12 +5511,12 @@
       <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
     </row>
     <row r="54" spans="1:4" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
